--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H2">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I2">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J2">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.9575842446898</v>
+        <v>24.365583</v>
       </c>
       <c r="N2">
-        <v>19.9575842446898</v>
+        <v>73.096749</v>
       </c>
       <c r="O2">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="P2">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="Q2">
-        <v>104.5281486575205</v>
+        <v>135.036546275466</v>
       </c>
       <c r="R2">
-        <v>104.5281486575205</v>
+        <v>1215.328916479194</v>
       </c>
       <c r="S2">
-        <v>0.07472589366707623</v>
+        <v>0.07314941945602754</v>
       </c>
       <c r="T2">
-        <v>0.07472589366707623</v>
+        <v>0.07314941945602753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H3">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I3">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J3">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.19938493236157</v>
+        <v>1.228158333333333</v>
       </c>
       <c r="N3">
-        <v>1.19938493236157</v>
+        <v>3.684475</v>
       </c>
       <c r="O3">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="P3">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="Q3">
-        <v>6.281796682924583</v>
+        <v>6.806578755483333</v>
       </c>
       <c r="R3">
-        <v>6.281796682924583</v>
+        <v>61.25920879935</v>
       </c>
       <c r="S3">
-        <v>0.004490779536375553</v>
+        <v>0.003687129878378683</v>
       </c>
       <c r="T3">
-        <v>0.004490779536375553</v>
+        <v>0.003687129878378682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H4">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I4">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J4">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.9785205093745</v>
+        <v>48.48145033333333</v>
       </c>
       <c r="N4">
-        <v>41.9785205093745</v>
+        <v>145.444351</v>
       </c>
       <c r="O4">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="P4">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="Q4">
-        <v>219.8631346574015</v>
+        <v>268.6891428552673</v>
       </c>
       <c r="R4">
-        <v>219.8631346574015</v>
+        <v>2418.202285697406</v>
       </c>
       <c r="S4">
-        <v>0.1571774630348531</v>
+        <v>0.1455491521081012</v>
       </c>
       <c r="T4">
-        <v>0.1571774630348531</v>
+        <v>0.1455491521081012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H5">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I5">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J5">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.42250092997338</v>
+        <v>4.595688</v>
       </c>
       <c r="N5">
-        <v>3.42250092997338</v>
+        <v>13.787064</v>
       </c>
       <c r="O5">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406906</v>
       </c>
       <c r="P5">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406905</v>
       </c>
       <c r="Q5">
-        <v>17.92540026902038</v>
+        <v>25.469771656176</v>
       </c>
       <c r="R5">
-        <v>17.92540026902038</v>
+        <v>229.227944905584</v>
       </c>
       <c r="S5">
-        <v>0.01281464917963248</v>
+        <v>0.01379699838091427</v>
       </c>
       <c r="T5">
-        <v>0.01281464917963248</v>
+        <v>0.01379699838091427</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.46672302469283</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H6">
-        <v>3.46672302469283</v>
+        <v>10.576915</v>
       </c>
       <c r="I6">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J6">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.9575842446898</v>
+        <v>24.365583</v>
       </c>
       <c r="N6">
-        <v>19.9575842446898</v>
+        <v>73.096749</v>
       </c>
       <c r="O6">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="P6">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="Q6">
-        <v>69.187416818313</v>
+        <v>85.904233438815</v>
       </c>
       <c r="R6">
-        <v>69.187416818313</v>
+        <v>773.138100949335</v>
       </c>
       <c r="S6">
-        <v>0.04946123717549424</v>
+        <v>0.04653440108017677</v>
       </c>
       <c r="T6">
-        <v>0.04946123717549424</v>
+        <v>0.04653440108017676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.46672302469283</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H7">
-        <v>3.46672302469283</v>
+        <v>10.576915</v>
       </c>
       <c r="I7">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J7">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.19938493236157</v>
+        <v>1.228158333333333</v>
       </c>
       <c r="N7">
-        <v>1.19938493236157</v>
+        <v>3.684475</v>
       </c>
       <c r="O7">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="P7">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="Q7">
-        <v>4.157935360487508</v>
+        <v>4.330042099402777</v>
       </c>
       <c r="R7">
-        <v>4.157935360487508</v>
+        <v>38.970378894625</v>
       </c>
       <c r="S7">
-        <v>0.002972457080822999</v>
+        <v>0.002345587728120225</v>
       </c>
       <c r="T7">
-        <v>0.002972457080822999</v>
+        <v>0.002345587728120224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.46672302469283</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H8">
-        <v>3.46672302469283</v>
+        <v>10.576915</v>
       </c>
       <c r="I8">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J8">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.9785205093745</v>
+        <v>48.48145033333333</v>
       </c>
       <c r="N8">
-        <v>41.9785205093745</v>
+        <v>145.444351</v>
       </c>
       <c r="O8">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="P8">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="Q8">
-        <v>145.5279035923888</v>
+        <v>170.9280597507961</v>
       </c>
       <c r="R8">
-        <v>145.5279035923888</v>
+        <v>1538.352537757165</v>
       </c>
       <c r="S8">
-        <v>0.1040361164825334</v>
+        <v>0.09259188482212811</v>
       </c>
       <c r="T8">
-        <v>0.1040361164825334</v>
+        <v>0.0925918848221281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.46672302469283</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H9">
-        <v>3.46672302469283</v>
+        <v>10.576915</v>
       </c>
       <c r="I9">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J9">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.42250092997338</v>
+        <v>4.595688</v>
       </c>
       <c r="N9">
-        <v>3.42250092997338</v>
+        <v>13.787064</v>
       </c>
       <c r="O9">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406906</v>
       </c>
       <c r="P9">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406905</v>
       </c>
       <c r="Q9">
-        <v>11.86486277597134</v>
+        <v>16.20273378084</v>
       </c>
       <c r="R9">
-        <v>11.86486277597134</v>
+        <v>145.82460402756</v>
       </c>
       <c r="S9">
-        <v>0.008482045129074391</v>
+        <v>0.008777035568217491</v>
       </c>
       <c r="T9">
-        <v>0.008482045129074391</v>
+        <v>0.008777035568217488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.826771711127</v>
+        <v>13.07613666666666</v>
       </c>
       <c r="H10">
-        <v>11.826771711127</v>
+        <v>39.22841</v>
       </c>
       <c r="I10">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="J10">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.9575842446898</v>
+        <v>24.365583</v>
       </c>
       <c r="N10">
-        <v>19.9575842446898</v>
+        <v>73.096749</v>
       </c>
       <c r="O10">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="P10">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="Q10">
-        <v>236.0337927675313</v>
+        <v>318.60769327101</v>
       </c>
       <c r="R10">
-        <v>236.0337927675313</v>
+        <v>2867.46923943909</v>
       </c>
       <c r="S10">
-        <v>0.168737668529579</v>
+        <v>0.172590076092851</v>
       </c>
       <c r="T10">
-        <v>0.168737668529579</v>
+        <v>0.172590076092851</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.826771711127</v>
+        <v>13.07613666666666</v>
       </c>
       <c r="H11">
-        <v>11.826771711127</v>
+        <v>39.22841</v>
       </c>
       <c r="I11">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="J11">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.19938493236157</v>
+        <v>1.228158333333333</v>
       </c>
       <c r="N11">
-        <v>1.19938493236157</v>
+        <v>3.684475</v>
       </c>
       <c r="O11">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="P11">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="Q11">
-        <v>14.18485178880579</v>
+        <v>16.05956621497222</v>
       </c>
       <c r="R11">
-        <v>14.18485178880579</v>
+        <v>144.53609593475</v>
       </c>
       <c r="S11">
-        <v>0.01014057686916926</v>
+        <v>0.008699481568081873</v>
       </c>
       <c r="T11">
-        <v>0.01014057686916926</v>
+        <v>0.008699481568081873</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.826771711127</v>
+        <v>13.07613666666666</v>
       </c>
       <c r="H12">
-        <v>11.826771711127</v>
+        <v>39.22841</v>
       </c>
       <c r="I12">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="J12">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>41.9785205093745</v>
+        <v>48.48145033333333</v>
       </c>
       <c r="N12">
-        <v>41.9785205093745</v>
+        <v>145.444351</v>
       </c>
       <c r="O12">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="P12">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="Q12">
-        <v>496.4703788352349</v>
+        <v>633.9500703568788</v>
       </c>
       <c r="R12">
-        <v>496.4703788352349</v>
+        <v>5705.550633211908</v>
       </c>
       <c r="S12">
-        <v>0.3549205952096967</v>
+        <v>0.3434113274499434</v>
       </c>
       <c r="T12">
-        <v>0.3549205952096967</v>
+        <v>0.3434113274499434</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.826771711127</v>
+        <v>13.07613666666666</v>
       </c>
       <c r="H13">
-        <v>11.826771711127</v>
+        <v>39.22841</v>
       </c>
       <c r="I13">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="J13">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.42250092997338</v>
+        <v>4.595688</v>
       </c>
       <c r="N13">
-        <v>3.42250092997338</v>
+        <v>13.787064</v>
       </c>
       <c r="O13">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406906</v>
       </c>
       <c r="P13">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406905</v>
       </c>
       <c r="Q13">
-        <v>40.47713717991502</v>
+        <v>60.09384436535999</v>
       </c>
       <c r="R13">
-        <v>40.47713717991502</v>
+        <v>540.8445992882399</v>
       </c>
       <c r="S13">
-        <v>0.02893660978120051</v>
+        <v>0.03255288993573444</v>
       </c>
       <c r="T13">
-        <v>0.02893660978120051</v>
+        <v>0.03255288993573444</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.485565018516919</v>
+        <v>1.321440333333333</v>
       </c>
       <c r="H14">
-        <v>0.485565018516919</v>
+        <v>3.964321</v>
       </c>
       <c r="I14">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132515</v>
       </c>
       <c r="J14">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132514</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.9575842446898</v>
+        <v>24.365583</v>
       </c>
       <c r="N14">
-        <v>19.9575842446898</v>
+        <v>73.096749</v>
       </c>
       <c r="O14">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="P14">
-        <v>0.2998525655576574</v>
+        <v>0.3097154004536173</v>
       </c>
       <c r="Q14">
-        <v>9.690704763325774</v>
+        <v>32.197664121381</v>
       </c>
       <c r="R14">
-        <v>9.690704763325774</v>
+        <v>289.778977092429</v>
       </c>
       <c r="S14">
-        <v>0.006927766185507878</v>
+        <v>0.01744150382456202</v>
       </c>
       <c r="T14">
-        <v>0.006927766185507878</v>
+        <v>0.01744150382456202</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.485565018516919</v>
+        <v>1.321440333333333</v>
       </c>
       <c r="H15">
-        <v>0.485565018516919</v>
+        <v>3.964321</v>
       </c>
       <c r="I15">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132515</v>
       </c>
       <c r="J15">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132514</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.19938493236157</v>
+        <v>1.228158333333333</v>
       </c>
       <c r="N15">
-        <v>1.19938493236157</v>
+        <v>3.684475</v>
       </c>
       <c r="O15">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="P15">
-        <v>0.01802014936529729</v>
+        <v>0.0156113461364245</v>
       </c>
       <c r="Q15">
-        <v>0.5823793668910594</v>
+        <v>1.622937957386111</v>
       </c>
       <c r="R15">
-        <v>0.5823793668910594</v>
+        <v>14.606441616475</v>
       </c>
       <c r="S15">
-        <v>0.0004163358789294834</v>
+        <v>0.0008791469618437225</v>
       </c>
       <c r="T15">
-        <v>0.0004163358789294834</v>
+        <v>0.0008791469618437223</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.485565018516919</v>
+        <v>1.321440333333333</v>
       </c>
       <c r="H16">
-        <v>0.485565018516919</v>
+        <v>3.964321</v>
       </c>
       <c r="I16">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132515</v>
       </c>
       <c r="J16">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132514</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.9785205093745</v>
+        <v>48.48145033333333</v>
       </c>
       <c r="N16">
-        <v>41.9785205093745</v>
+        <v>145.444351</v>
       </c>
       <c r="O16">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="P16">
-        <v>0.6307059471087968</v>
+        <v>0.6162566192058893</v>
       </c>
       <c r="Q16">
-        <v>20.38330108844729</v>
+        <v>64.06534388896343</v>
       </c>
       <c r="R16">
-        <v>20.38330108844729</v>
+        <v>576.5880950006708</v>
       </c>
       <c r="S16">
-        <v>0.01457177238171361</v>
+        <v>0.03470425482571655</v>
       </c>
       <c r="T16">
-        <v>0.01457177238171361</v>
+        <v>0.03470425482571654</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.485565018516919</v>
+        <v>1.321440333333333</v>
       </c>
       <c r="H17">
-        <v>0.485565018516919</v>
+        <v>3.964321</v>
       </c>
       <c r="I17">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132515</v>
       </c>
       <c r="J17">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132514</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.42250092997338</v>
+        <v>4.595688</v>
       </c>
       <c r="N17">
-        <v>3.42250092997338</v>
+        <v>13.787064</v>
       </c>
       <c r="O17">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406906</v>
       </c>
       <c r="P17">
-        <v>0.05142133796824853</v>
+        <v>0.05841663420406905</v>
       </c>
       <c r="Q17">
-        <v>1.661846727436697</v>
+        <v>6.072927482615999</v>
       </c>
       <c r="R17">
-        <v>1.661846727436697</v>
+        <v>54.65634734354399</v>
       </c>
       <c r="S17">
-        <v>0.00118803387834114</v>
+        <v>0.003289710319202861</v>
       </c>
       <c r="T17">
-        <v>0.00118803387834114</v>
+        <v>0.00328971031920286</v>
       </c>
     </row>
   </sheetData>
